--- a/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses_6_regions.xlsx
+++ b/input_data/Biogeographic_data/Taxa_bioregions_binary_table_for_analyses_6_regions.xlsx
@@ -5437,7 +5437,7 @@
         <v>1</v>
       </c>
       <c r="D21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -5561,7 +5561,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -5788,7 +5788,7 @@
         <v>0</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
@@ -5868,7 +5868,7 @@
         <v>45</v>
       </c>
       <c r="B40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -5880,10 +5880,10 @@
         <v>0</v>
       </c>
       <c r="F40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -6389,7 +6389,7 @@
         <v>0</v>
       </c>
       <c r="G62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="63">
@@ -6452,13 +6452,13 @@
         <v>0</v>
       </c>
       <c r="E65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F65" t="b">
         <v>1</v>
       </c>
       <c r="G65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -6665,7 +6665,7 @@
         <v>0</v>
       </c>
       <c r="G74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -7274,7 +7274,7 @@
         <v>0</v>
       </c>
       <c r="C101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D101" t="b">
         <v>1</v>
@@ -7461,7 +7461,7 @@
         <v>0</v>
       </c>
       <c r="D109" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E109" t="b">
         <v>0</v>
@@ -7806,7 +7806,7 @@
         <v>1</v>
       </c>
       <c r="D124" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E124" t="b">
         <v>0</v>
@@ -8200,7 +8200,7 @@
         <v>0</v>
       </c>
       <c r="E141" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F141" t="b">
         <v>1</v>
@@ -9103,7 +9103,7 @@
         <v>0</v>
       </c>
       <c r="G180" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
@@ -9172,7 +9172,7 @@
         <v>0</v>
       </c>
       <c r="G183" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
@@ -9471,7 +9471,7 @@
         <v>0</v>
       </c>
       <c r="G196" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -9531,7 +9531,7 @@
         <v>0</v>
       </c>
       <c r="D199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E199" t="b">
         <v>0</v>
@@ -9847,7 +9847,7 @@
         <v>218</v>
       </c>
       <c r="B213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C213" t="b">
         <v>0</v>
@@ -10270,7 +10270,7 @@
         <v>0</v>
       </c>
       <c r="E231" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F231" t="b">
         <v>1</v>
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="D233" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E233" t="b">
         <v>0</v>
@@ -10379,7 +10379,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D236" t="b">
         <v>0</v>
@@ -10609,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D246" t="b">
         <v>1</v>
@@ -11978,7 +11978,7 @@
         <v>0</v>
       </c>
       <c r="G305" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="306">
@@ -12012,7 +12012,7 @@
         <v>0</v>
       </c>
       <c r="C307" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D307" t="b">
         <v>1</v>
@@ -12728,7 +12728,7 @@
         <v>0</v>
       </c>
       <c r="D338" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E338" t="b">
         <v>0</v>
@@ -13208,7 +13208,7 @@
         <v>0</v>
       </c>
       <c r="C359" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D359" t="b">
         <v>1</v>
@@ -13274,7 +13274,7 @@
         <v>367</v>
       </c>
       <c r="B362" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C362" t="b">
         <v>0</v>
@@ -13841,7 +13841,7 @@
         <v>0</v>
       </c>
       <c r="G386" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
@@ -14117,7 +14117,7 @@
         <v>0</v>
       </c>
       <c r="G398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
@@ -14200,7 +14200,7 @@
         <v>1</v>
       </c>
       <c r="D402" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E402" t="b">
         <v>0</v>
@@ -15373,16 +15373,16 @@
         <v>0</v>
       </c>
       <c r="D453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E453" t="b">
         <v>0</v>
       </c>
       <c r="F453" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G453" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
@@ -16957,7 +16957,7 @@
         <v>0</v>
       </c>
       <c r="C522" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D522" t="b">
         <v>1</v>
@@ -16986,7 +16986,7 @@
         <v>0</v>
       </c>
       <c r="E523" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F523" t="b">
         <v>1</v>
@@ -17130,7 +17130,7 @@
         <v>1</v>
       </c>
       <c r="G529" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -17147,13 +17147,13 @@
         <v>0</v>
       </c>
       <c r="E530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F530" t="b">
         <v>1</v>
       </c>
       <c r="G530" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="531">
@@ -17912,7 +17912,7 @@
         <v>0</v>
       </c>
       <c r="G563" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="564">
@@ -18133,7 +18133,7 @@
         <v>1</v>
       </c>
       <c r="D573" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E573" t="b">
         <v>0</v>
@@ -18176,7 +18176,7 @@
         <v>0</v>
       </c>
       <c r="C575" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D575" t="b">
         <v>1</v>
@@ -19539,7 +19539,7 @@
         <v>0</v>
       </c>
       <c r="E634" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F634" t="b">
         <v>1</v>
@@ -19591,7 +19591,7 @@
         <v>0</v>
       </c>
       <c r="G636" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="637">
@@ -21218,7 +21218,7 @@
         <v>0</v>
       </c>
       <c r="E707" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F707" t="b">
         <v>1</v>
@@ -21661,7 +21661,7 @@
         <v>0</v>
       </c>
       <c r="G726" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="727">
@@ -22351,7 +22351,7 @@
         <v>0</v>
       </c>
       <c r="G756" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="757">
@@ -22756,7 +22756,7 @@
         <v>0</v>
       </c>
       <c r="D774" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E774" t="b">
         <v>0</v>
@@ -23524,7 +23524,7 @@
         <v>0</v>
       </c>
       <c r="G807" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="808">
@@ -24099,7 +24099,7 @@
         <v>0</v>
       </c>
       <c r="G832" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="833">
@@ -25151,7 +25151,7 @@
         <v>0</v>
       </c>
       <c r="E878" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F878" t="b">
         <v>1</v>
@@ -25775,7 +25775,7 @@
         <v>1</v>
       </c>
       <c r="F905" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G905" t="b">
         <v>0</v>
@@ -25798,7 +25798,7 @@
         <v>1</v>
       </c>
       <c r="F906" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G906" t="b">
         <v>0</v>
@@ -26255,7 +26255,7 @@
         <v>0</v>
       </c>
       <c r="E926" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F926" t="b">
         <v>1</v>
@@ -26597,7 +26597,7 @@
         <v>0</v>
       </c>
       <c r="D941" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E941" t="b">
         <v>0</v>
@@ -28897,7 +28897,7 @@
         <v>1</v>
       </c>
       <c r="D1041" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1041" t="b">
         <v>0</v>
@@ -29052,7 +29052,7 @@
         <v>1053</v>
       </c>
       <c r="B1048" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1048" t="b">
         <v>0</v>
@@ -29239,7 +29239,7 @@
         <v>0</v>
       </c>
       <c r="C1056" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1056" t="b">
         <v>1</v>
@@ -29633,7 +29633,7 @@
         <v>1</v>
       </c>
       <c r="D1073" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1073" t="b">
         <v>0</v>
@@ -30832,7 +30832,7 @@
         <v>0</v>
       </c>
       <c r="E1125" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1125" t="b">
         <v>1</v>
@@ -31154,7 +31154,7 @@
         <v>0</v>
       </c>
       <c r="E1139" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1139" t="b">
         <v>1</v>
@@ -31706,7 +31706,7 @@
         <v>0</v>
       </c>
       <c r="E1163" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1163" t="b">
         <v>1</v>
@@ -32189,7 +32189,7 @@
         <v>0</v>
       </c>
       <c r="E1184" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1184" t="b">
         <v>1</v>
@@ -32485,7 +32485,7 @@
         <v>0</v>
       </c>
       <c r="D1197" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1197" t="b">
         <v>0</v>
@@ -32540,7 +32540,7 @@
         <v>1</v>
       </c>
       <c r="G1199" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1200">
@@ -32701,7 +32701,7 @@
         <v>0</v>
       </c>
       <c r="G1206" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1207">
@@ -32718,7 +32718,7 @@
         <v>0</v>
       </c>
       <c r="E1207" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1207" t="b">
         <v>1</v>
@@ -32859,7 +32859,7 @@
         <v>1</v>
       </c>
       <c r="F1213" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1213" t="b">
         <v>0</v>
@@ -32985,16 +32985,16 @@
         <v>1224</v>
       </c>
       <c r="B1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1219" t="b">
         <v>0</v>
       </c>
       <c r="D1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1219" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1219" t="b">
         <v>1</v>
@@ -33057,7 +33057,7 @@
         <v>0</v>
       </c>
       <c r="C1222" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1222" t="b">
         <v>1</v>
@@ -33086,7 +33086,7 @@
         <v>0</v>
       </c>
       <c r="E1223" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1223" t="b">
         <v>1</v>
@@ -33293,7 +33293,7 @@
         <v>0</v>
       </c>
       <c r="E1232" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1232" t="b">
         <v>1</v>
@@ -33356,7 +33356,7 @@
         <v>0</v>
       </c>
       <c r="C1235" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1235" t="b">
         <v>1</v>
@@ -33431,7 +33431,7 @@
         <v>0</v>
       </c>
       <c r="E1238" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1238" t="b">
         <v>1</v>
@@ -33451,7 +33451,7 @@
         <v>1</v>
       </c>
       <c r="D1239" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1239" t="b">
         <v>0</v>
@@ -33520,7 +33520,7 @@
         <v>1</v>
       </c>
       <c r="D1242" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1242" t="b">
         <v>0</v>
@@ -33667,7 +33667,7 @@
         <v>0</v>
       </c>
       <c r="G1248" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1249">
@@ -33724,7 +33724,7 @@
         <v>0</v>
       </c>
       <c r="C1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1251" t="b">
         <v>0</v>
@@ -33736,7 +33736,7 @@
         <v>1</v>
       </c>
       <c r="G1251" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1252">
@@ -33750,7 +33750,7 @@
         <v>1</v>
       </c>
       <c r="D1252" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1252" t="b">
         <v>0</v>
@@ -33859,7 +33859,7 @@
         <v>1262</v>
       </c>
       <c r="B1257" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1257" t="b">
         <v>1</v>
@@ -33989,7 +33989,7 @@
         <v>0</v>
       </c>
       <c r="G1262" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1263">
@@ -34026,7 +34026,7 @@
         <v>1</v>
       </c>
       <c r="D1264" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1264" t="b">
         <v>0</v>
@@ -34075,7 +34075,7 @@
         <v>0</v>
       </c>
       <c r="E1266" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1266" t="b">
         <v>1</v>
@@ -34532,7 +34532,7 @@
         <v>1</v>
       </c>
       <c r="D1286" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1286" t="b">
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>1299</v>
       </c>
       <c r="B1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1294" t="b">
         <v>1</v>
@@ -34725,7 +34725,7 @@
         <v>0</v>
       </c>
       <c r="G1294" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1295">
@@ -35714,7 +35714,7 @@
         <v>1</v>
       </c>
       <c r="G1337" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1338">
@@ -35760,7 +35760,7 @@
         <v>0</v>
       </c>
       <c r="G1339" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1340">
@@ -36582,7 +36582,7 @@
         <v>0</v>
       </c>
       <c r="E1375" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1375" t="b">
         <v>0</v>
@@ -37068,7 +37068,7 @@
         <v>1</v>
       </c>
       <c r="F1396" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G1396" t="b">
         <v>0</v>
@@ -37102,7 +37102,7 @@
         <v>1403</v>
       </c>
       <c r="B1398" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C1398" t="b">
         <v>1</v>
@@ -37289,7 +37289,7 @@
         <v>0</v>
       </c>
       <c r="C1406" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1406" t="b">
         <v>1</v>
@@ -37410,7 +37410,7 @@
         <v>0</v>
       </c>
       <c r="E1411" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1411" t="b">
         <v>0</v>
@@ -37499,7 +37499,7 @@
         <v>1</v>
       </c>
       <c r="D1415" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1415" t="b">
         <v>0</v>
@@ -37709,7 +37709,7 @@
         <v>0</v>
       </c>
       <c r="E1424" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F1424" t="b">
         <v>0</v>
@@ -37821,7 +37821,7 @@
         <v>1</v>
       </c>
       <c r="D1429" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E1429" t="b">
         <v>0</v>
@@ -38094,7 +38094,7 @@
         <v>0</v>
       </c>
       <c r="C1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D1441" t="b">
         <v>1</v>
@@ -38106,7 +38106,7 @@
         <v>0</v>
       </c>
       <c r="G1441" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="1442">
